--- a/temp/collect.xlsx
+++ b/temp/collect.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>序号</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>图名</t>
+  </si>
+  <si>
+    <t>文件名</t>
   </si>
 </sst>
 </file>
@@ -990,20 +993,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="7.44444444444444" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.5555555555556" style="1" customWidth="1"/>
-    <col min="3" max="3" width="105.777777777778" style="1" customWidth="1"/>
+    <col min="3" max="3" width="79.5555555555556" style="1" customWidth="1"/>
+    <col min="4" max="4" width="84.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25" customHeight="1" spans="1:3">
+    <row r="1" ht="25" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1013,16 +1017,21 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" ht="25" customHeight="1" spans="1:3">
+    <row r="2" ht="25" customHeight="1" spans="1:4">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
     </row>
-    <row r="3" ht="25" customHeight="1" spans="1:3">
+    <row r="3" ht="25" customHeight="1" spans="1:4">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
